--- a/UnitCommitment-T2/NotebooksPregunta1/Resultados14.xlsx
+++ b/UnitCommitment-T2/NotebooksPregunta1/Resultados14.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/vgoehringb_uc_cl/Documents/Ramos/Operación Economica/IEE3323--Operacion-Economica-Sistemas-Electricos/UnitCommitment-T2/NotebooksPregunta1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="115_{C42806D6-4749-4FF3-A4AC-284DA8F2EA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Potencias" sheetId="1" r:id="rId1"/>
-    <sheet name="Encendido" r:id="rId4" sheetId="2"/>
-    <sheet name="Apagado" r:id="rId5" sheetId="3"/>
-    <sheet name="State" r:id="rId6" sheetId="4"/>
-    <sheet name="Costos" r:id="rId7" sheetId="5"/>
-    <sheet name="PotNominal" r:id="rId8" sheetId="6"/>
+    <sheet name="Encendido" sheetId="2" r:id="rId2"/>
+    <sheet name="Apagado" sheetId="3" r:id="rId3"/>
+    <sheet name="State" sheetId="4" r:id="rId4"/>
+    <sheet name="Costos" sheetId="5" r:id="rId5"/>
+    <sheet name="PotNominal" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Costo Encendido</t>
   </si>
@@ -94,9 +94,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +134,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +240,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,103 +382,103 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBDC3B0-A30D-408D-8DDD-CC0BD4ED1D0B}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B1">
-        <v>98.94141852203269</v>
+        <v>98.941418522032691</v>
       </c>
       <c r="C1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E1">
-        <v>98.11710477626812</v>
+        <v>98.117104776268121</v>
       </c>
       <c r="F1">
-        <v>99.99999999999999</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="G1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="K1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="L1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="M1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="O1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="P1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="Q1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="R1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="S1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="T1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="U1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="V1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="W1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="X1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>52.5</v>
       </c>
       <c r="C2">
-        <v>50.09473739850055</v>
+        <v>50.094737398500548</v>
       </c>
       <c r="D2">
         <v>30.267747395164903</v>
@@ -493,66 +493,66 @@
         <v>55.74804569729001</v>
       </c>
       <c r="H2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="K2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="L2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="N2">
         <v>59.1</v>
       </c>
       <c r="O2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="P2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Q2">
-        <v>63.34104344070107</v>
+        <v>63.341043440701071</v>
       </c>
       <c r="R2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="S2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="T2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="U2">
-        <v>74.99999999999996</v>
+        <v>74.999999999999957</v>
       </c>
       <c r="V2">
-        <v>74.99999999999997</v>
+        <v>74.999999999999972</v>
       </c>
       <c r="W2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="X2">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>52.83297191515375</v>
+        <v>52.832971915153749</v>
       </c>
       <c r="B3">
         <v>30.332971915153745</v>
       </c>
       <c r="C3">
-        <v>7.832971915153745</v>
+        <v>7.8329719151537454</v>
       </c>
       <c r="D3">
         <v>7.5</v>
@@ -567,16 +567,16 @@
         <v>7.5</v>
       </c>
       <c r="H3">
-        <v>8.76921819072347</v>
+        <v>8.7692181907234694</v>
       </c>
       <c r="I3">
-        <v>20.88693120714318</v>
+        <v>20.886931207143181</v>
       </c>
       <c r="J3">
-        <v>38.74219116370364</v>
+        <v>38.742191163703637</v>
       </c>
       <c r="K3">
-        <v>40.57761719629909</v>
+        <v>40.577617196299087</v>
       </c>
       <c r="L3">
         <v>23.400804375724114</v>
@@ -591,87 +591,87 @@
         <v>36.200804375724104</v>
       </c>
       <c r="P3">
-        <v>42.60080437572413</v>
+        <v>42.600804375724131</v>
       </c>
       <c r="Q3">
         <v>38.259760935023095</v>
       </c>
       <c r="R3">
-        <v>60.75976093502308</v>
+        <v>60.759760935023081</v>
       </c>
       <c r="S3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="T3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="U3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="V3">
         <v>65.5</v>
       </c>
       <c r="W3">
-        <v>70.89616544154791</v>
+        <v>70.896165441547907</v>
       </c>
       <c r="X3">
         <v>56.193304067182744</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>15.870460675859775</v>
@@ -680,93 +680,93 @@
         <v>29.292600624027134</v>
       </c>
       <c r="U4">
-        <v>35.69260062402717</v>
+        <v>35.692600624027172</v>
       </c>
       <c r="V4">
         <v>13.192600624027229</v>
       </c>
       <c r="W4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>31.167028084846212</v>
       </c>
@@ -789,16 +789,16 @@
         <v>28.636219389714864</v>
       </c>
       <c r="H6">
-        <v>29.73898556097351</v>
+        <v>29.738985560973511</v>
       </c>
       <c r="I6">
         <v>30.42127254455378</v>
       </c>
       <c r="J6">
-        <v>31.76601258799324</v>
+        <v>31.766012587993242</v>
       </c>
       <c r="K6">
-        <v>33.13058655539784</v>
+        <v>33.130586555397841</v>
       </c>
       <c r="L6">
         <v>34.3073993759728</v>
@@ -834,30 +834,30 @@
         <v>34.3073993759728</v>
       </c>
       <c r="W6">
-        <v>32.50383455845216</v>
+        <v>32.503834558452162</v>
       </c>
       <c r="X6">
         <v>31.206695932817297</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.00014809329877823026</v>
+        <v>1.4809329877823026E-4</v>
       </c>
       <c r="F7">
-        <v>7.145205479452054</v>
+        <v>7.1452054794520539</v>
       </c>
       <c r="G7">
         <v>32.11573491299513</v>
@@ -896,22 +896,22 @@
         <v>14.732839689004052</v>
       </c>
       <c r="S7">
-        <v>0.6221399481673432</v>
+        <v>0.62213994816734319</v>
       </c>
       <c r="T7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -920,529 +920,529 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FB9251-AD21-404C-826B-0E8353F227BD}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1451,529 +1451,529 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BCC2D3-7433-4335-9F4F-83E33CDB4B0C}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1982,529 +1982,529 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A71042-F4DA-4679-A156-9D7B636DC94C}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2513,179 +2513,179 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00553362-4D47-45EE-85EF-4D8912C345B0}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="U1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="C2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="D2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="F2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="H2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="I2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="J2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="K2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="L2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="M2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="N2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="O2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="P2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="Q2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="R2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="S2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="T2">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="U2">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="V2">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="W2">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="X2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="Y2">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8169.978314909225</v>
+        <v>8169.9783149092254</v>
       </c>
       <c r="C3">
         <v>5898.8066853498785</v>
       </c>
       <c r="D3">
-        <v>4473.767810849246</v>
+        <v>4473.7678108492464</v>
       </c>
       <c r="E3">
         <v>3660.7098958065963</v>
@@ -2694,61 +2694,61 @@
         <v>3437.6017348136224</v>
       </c>
       <c r="G3">
-        <v>4375.25963928826</v>
+        <v>4375.2596392882597</v>
       </c>
       <c r="H3">
         <v>4679.9218278916005</v>
       </c>
       <c r="I3">
-        <v>5526.153091443408</v>
+        <v>5526.1530914434079</v>
       </c>
       <c r="J3">
         <v>6253.215872428591</v>
       </c>
       <c r="K3">
-        <v>7324.531469822218</v>
+        <v>7324.5314698222182</v>
       </c>
       <c r="L3">
-        <v>7434.657031777945</v>
+        <v>7434.6570317779451</v>
       </c>
       <c r="M3">
         <v>6404.048262543447</v>
       </c>
       <c r="N3">
-        <v>5636.048262543442</v>
+        <v>5636.0482625434424</v>
       </c>
       <c r="O3">
-        <v>5186.048262543449</v>
+        <v>5186.0482625434488</v>
       </c>
       <c r="P3">
-        <v>7172.048262543446</v>
+        <v>7172.0482625434461</v>
       </c>
       <c r="Q3">
-        <v>7556.048262543448</v>
+        <v>7556.0482625434479</v>
       </c>
       <c r="R3">
         <v>6829.2273937294285</v>
       </c>
       <c r="S3">
-        <v>8645.585656101384</v>
+        <v>8645.5856561013843</v>
       </c>
       <c r="T3">
         <v>10769.636854068782</v>
       </c>
       <c r="U3">
-        <v>11843.40804992217</v>
+        <v>11843.408049922171</v>
       </c>
       <c r="V3">
-        <v>12355.40804992217</v>
+        <v>12355.408049922171</v>
       </c>
       <c r="W3">
-        <v>9985.408049922178</v>
+        <v>9985.4080499221782</v>
       </c>
       <c r="X3">
-        <v>9253.769926492874</v>
+        <v>9253.7699264928742</v>
       </c>
       <c r="Y3">
-        <v>8371.598244030964</v>
+        <v>8371.5982440309635</v>
       </c>
     </row>
   </sheetData>
@@ -2757,384 +2757,384 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981C80CC-2614-4807-A75A-E7566BD8457D}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="E1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="F1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="I1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="K1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="L1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="M1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="N1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="O1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="P1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="Q1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="R1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="S1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="T1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="U1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="V1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="W1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="X1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="I2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="K2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="L2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="N2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="O2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="P2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Q2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="R2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="S2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="T2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="U2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="V2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="W2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="X2">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="H3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="I3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="J3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="K3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="L3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="M3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="N3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="O3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="P3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="Q3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="R3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="S3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="T3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="U3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="V3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="W3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="X3">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="T4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="U4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="V4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="W4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>31.167028084846212</v>
       </c>
@@ -3157,19 +3157,19 @@
         <v>28.636219389714864</v>
       </c>
       <c r="H6">
-        <v>29.73898556097351</v>
+        <v>29.738985560973511</v>
       </c>
       <c r="I6">
         <v>30.42127254455378</v>
       </c>
       <c r="J6">
-        <v>31.76601258799324</v>
+        <v>31.766012587993242</v>
       </c>
       <c r="K6">
-        <v>33.13058655539784</v>
+        <v>33.130586555397841</v>
       </c>
       <c r="L6">
-        <v>36.40715079083648</v>
+        <v>36.407150790836482</v>
       </c>
       <c r="M6">
         <v>38.46194531159189</v>
@@ -3181,10 +3181,10 @@
         <v>41.393399270022165</v>
       </c>
       <c r="P6">
-        <v>42.51599936542378</v>
+        <v>42.515999365423781</v>
       </c>
       <c r="Q6">
-        <v>45.49505474166216</v>
+        <v>45.495054741662159</v>
       </c>
       <c r="R6">
         <v>42.611202200418106</v>
@@ -3193,93 +3193,93 @@
         <v>37.747924049807295</v>
       </c>
       <c r="T6">
-        <v>34.48722695303567</v>
+        <v>34.487226953035673</v>
       </c>
       <c r="U6">
-        <v>35.9827048185227</v>
+        <v>35.982704818522699</v>
       </c>
       <c r="V6">
-        <v>35.47098958055162</v>
+        <v>35.470989580551617</v>
       </c>
       <c r="W6">
-        <v>32.50383455845216</v>
+        <v>32.503834558452162</v>
       </c>
       <c r="X6">
         <v>31.206695932817297</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.00014809329877823026</v>
+        <v>1.4809329877823026E-4</v>
       </c>
       <c r="F7">
-        <v>7.145205479452054</v>
+        <v>7.1452054794520539</v>
       </c>
       <c r="G7">
         <v>32.11573491299513</v>
       </c>
       <c r="H7">
-        <v>64.62436134764891</v>
+        <v>64.624361347648914</v>
       </c>
       <c r="I7">
-        <v>84.54661236579027</v>
+        <v>84.546612365790267</v>
       </c>
       <c r="J7">
-        <v>90.8602739726027</v>
+        <v>90.860273972602698</v>
       </c>
       <c r="K7">
-        <v>92.64435394298405</v>
+        <v>92.644353942984054</v>
       </c>
       <c r="L7">
-        <v>93.03109959274323</v>
+        <v>93.031099592743232</v>
       </c>
       <c r="M7">
-        <v>92.74801925212864</v>
+        <v>92.748019252128643</v>
       </c>
       <c r="N7">
-        <v>91.19400222139946</v>
+        <v>91.194002221399458</v>
       </c>
       <c r="O7">
-        <v>86.71432802665674</v>
+        <v>86.714328026656744</v>
       </c>
       <c r="P7">
-        <v>73.32647167715648</v>
+        <v>73.326471677156476</v>
       </c>
       <c r="Q7">
-        <v>41.89751943724541</v>
+        <v>41.897519437245407</v>
       </c>
       <c r="R7">
         <v>14.732839689004052</v>
       </c>
       <c r="S7">
-        <v>0.6221399481673432</v>
+        <v>0.62213994816734319</v>
       </c>
       <c r="T7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
